--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(SWIB)/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(SWIB)/100nodes/100.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(SWIB)\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C982654B-C5BE-4B3E-84C1-3B4EE1F3A3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D90D50-AF40-4F19-BC14-4F5F2681AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1552,13 +1552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57:T67"/>
+    <sheetView topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44:W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1607,13 +1607,13 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -1637,25 +1637,25 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>4209</v>
+        <v>6117</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>4209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>5923</v>
+        <v>7795</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>10214</v>
+        <v>12103</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1713,10 +1713,10 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>11920</v>
+        <v>13810</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -1769,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>16213</v>
+        <v>18131</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
@@ -1779,15 +1779,15 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>17900</v>
+        <v>19823</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>22214</v>
+        <v>24114</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1845,10 +1845,10 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>23914</v>
+        <v>25819</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>28200</v>
+        <v>30125</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -1911,15 +1911,15 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>29896</v>
+        <v>31819</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>34201</v>
+        <v>36183</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -1977,10 +1977,10 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>35900</v>
+        <v>37886</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>40210</v>
+        <v>42187</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>41912</v>
+        <v>43872</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>46205</v>
+        <v>48268</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2109,10 +2109,10 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>47892</v>
+        <v>49967</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>52160</v>
+        <v>54306</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2175,15 +2175,15 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>53860</v>
+        <v>56014</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -2231,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>58146</v>
+        <v>60297</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2241,10 +2241,10 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2272,14 +2272,14 @@
       <c r="R12" s="2"/>
       <c r="T12">
         <f>AVERAGE(T2:T11)</f>
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>4285.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4325.3999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K13" t="s">
         <v>2</v>
@@ -2320,7 +2320,7 @@
         <v>17</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>3</v>
@@ -2332,20 +2332,20 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>4194</v>
+        <v>6043</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -2368,13 +2368,13 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>4195</v>
+        <v>7750</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K14" t="s">
         <v>2</v>
@@ -2386,7 +2386,7 @@
         <v>17</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>3</v>
@@ -2398,20 +2398,20 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>8391</v>
+        <v>12062</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>4196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>10123</v>
+        <v>13787</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>14422</v>
+        <v>18108</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2474,10 +2474,10 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>16170</v>
+        <v>19804</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2530,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>20478</v>
+        <v>24115</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2540,10 +2540,10 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>22199</v>
+        <v>25821</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>26483</v>
+        <v>30134</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2606,10 +2606,10 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>28190</v>
+        <v>31855</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>32496</v>
+        <v>36136</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2672,10 +2672,10 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>34205</v>
+        <v>37842</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2728,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>38515</v>
+        <v>42538</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2738,10 +2738,10 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>40217</v>
+        <v>44239</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>44517</v>
+        <v>48529</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2804,10 +2804,10 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>46225</v>
+        <v>50231</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>50542</v>
+        <v>54536</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2870,10 +2870,10 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>52238</v>
+        <v>56243</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2926,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>56521</v>
+        <v>60539</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -2936,10 +2936,10 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2967,14 +2967,14 @@
       <c r="R23" s="2"/>
       <c r="T23">
         <f>AVERAGE(T13:T22)</f>
-        <v>1637.6</v>
+        <v>2047</v>
       </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>4279.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4341.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -2997,13 +2997,13 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1758</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
@@ -3015,7 +3015,7 @@
         <v>17</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>3</v>
@@ -3027,31 +3027,31 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>4208</v>
+        <v>6073</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>4208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>3</v>
@@ -3063,25 +3063,25 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>4209</v>
+        <v>7781</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K25" t="s">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>3</v>
@@ -3093,31 +3093,31 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>8422</v>
+        <v>12068</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>4213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>3</v>
@@ -3129,25 +3129,25 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>8423</v>
+        <v>13775</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K26" t="s">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>3</v>
@@ -3159,31 +3159,31 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>12626</v>
+        <v>18068</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>3</v>
@@ -3195,25 +3195,25 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>14330</v>
+        <v>18069</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
       </c>
       <c r="J27">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="s">
         <v>3</v>
@@ -3225,25 +3225,25 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>18626</v>
+        <v>19282</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
       </c>
       <c r="T27">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>20329</v>
+        <v>20982</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3291,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>24607</v>
+        <v>25277</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3301,15 +3301,15 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3327,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>26307</v>
+        <v>26973</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
@@ -3357,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>30613</v>
+        <v>31468</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
@@ -3367,15 +3367,15 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>32311</v>
+        <v>33159</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M30" t="s">
         <v>17</v>
@@ -3423,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>36605</v>
+        <v>37465</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3433,15 +3433,15 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -3459,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>38302</v>
+        <v>39185</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
@@ -3489,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>42592</v>
+        <v>43491</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
@@ -3499,15 +3499,15 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>44313</v>
+        <v>45198</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
@@ -3555,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>48617</v>
+        <v>49495</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3565,15 +3565,15 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -3591,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>50327</v>
+        <v>51201</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3621,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>54627</v>
+        <v>55483</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3662,14 +3662,14 @@
       <c r="R34" s="2"/>
       <c r="T34">
         <f>AVERAGE(T24:T33)</f>
-        <v>1432.9</v>
+        <v>1842.3</v>
       </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>4269.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4008.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>17</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>3</v>
@@ -3692,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K35" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>17</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
         <v>3</v>
@@ -3722,20 +3722,20 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>4224</v>
+        <v>6059</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>17</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -3758,13 +3758,13 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>4225</v>
+        <v>7762</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K36" t="s">
         <v>2</v>
@@ -3776,7 +3776,7 @@
         <v>17</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>3</v>
@@ -3788,20 +3788,20 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>8417</v>
+        <v>12085</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>4192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>17</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -3824,13 +3824,13 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>8418</v>
+        <v>13787</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K37" t="s">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         <v>17</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
         <v>3</v>
@@ -3854,20 +3854,20 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>12627</v>
+        <v>18101</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>4209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>17</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
         <v>3</v>
@@ -3890,13 +3890,13 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>12628</v>
+        <v>19802</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -3908,7 +3908,7 @@
         <v>17</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>3</v>
@@ -3920,20 +3920,20 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>16832</v>
+        <v>24209</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>4204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>18561</v>
+        <v>25902</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3986,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>22843</v>
+        <v>30209</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
@@ -3996,10 +3996,10 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>24558</v>
+        <v>31911</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4052,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>28864</v>
+        <v>36360</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4062,10 +4062,10 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>30570</v>
+        <v>38066</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -4118,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>34895</v>
+        <v>42394</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
@@ -4128,10 +4128,10 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>36637</v>
+        <v>44099</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4184,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>40971</v>
+        <v>48406</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4194,10 +4194,10 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>42668</v>
+        <v>50106</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4250,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>46939</v>
+        <v>54441</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4260,10 +4260,10 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>48655</v>
+        <v>56155</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4316,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>52955</v>
+        <v>60455</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4330,14 +4330,14 @@
       </c>
       <c r="V44">
         <f>U12</f>
-        <v>4285.5</v>
+        <v>4325.3999999999996</v>
       </c>
       <c r="W44">
         <f>T12</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4365,22 +4365,22 @@
       <c r="R45" s="2"/>
       <c r="T45">
         <f>AVERAGE(T35:T44)</f>
-        <v>1228.2</v>
+        <v>2047</v>
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>4264.7</v>
+        <v>4337.3</v>
       </c>
       <c r="V45">
         <f>U23</f>
-        <v>4279.7</v>
+        <v>4341.3</v>
       </c>
       <c r="W45">
         <f>T23</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>17</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>3</v>
@@ -4403,13 +4403,13 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K46" t="s">
         <v>2</v>
@@ -4421,7 +4421,7 @@
         <v>17</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>3</v>
@@ -4433,39 +4433,39 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>4208</v>
+        <v>6101</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>4208</v>
+        <v>4339</v>
       </c>
       <c r="V46">
         <f>U34</f>
-        <v>4269.2</v>
+        <v>4008.9</v>
       </c>
       <c r="W46">
         <f>T34</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>3</v>
@@ -4477,25 +4477,25 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>4209</v>
+        <v>7814</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K47" t="s">
         <v>2</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
         <v>3</v>
@@ -4507,28 +4507,28 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>8427</v>
+        <v>12171</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>4218</v>
+        <v>4357</v>
       </c>
       <c r="V47">
         <f>U45</f>
-        <v>4264.7</v>
+        <v>4337.3</v>
       </c>
       <c r="W47">
         <f>T45</f>
-        <v>1228.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>17</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>3</v>
@@ -4551,13 +4551,13 @@
         <v>4</v>
       </c>
       <c r="H48">
-        <v>8428</v>
+        <v>13910</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K48" t="s">
         <v>2</v>
@@ -4569,7 +4569,7 @@
         <v>17</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="s">
         <v>3</v>
@@ -4581,39 +4581,39 @@
         <v>6</v>
       </c>
       <c r="R48">
-        <v>12646</v>
+        <v>18277</v>
       </c>
       <c r="S48" t="s">
         <v>7</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>4218</v>
+        <v>4367</v>
       </c>
       <c r="V48">
         <f>U56</f>
-        <v>4260.1000000000004</v>
+        <v>4326.7</v>
       </c>
       <c r="W48">
         <f>T56</f>
-        <v>1023.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -4625,25 +4625,25 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <v>12647</v>
+        <v>20017</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K49" t="s">
         <v>2</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="s">
         <v>3</v>
@@ -4655,39 +4655,39 @@
         <v>6</v>
       </c>
       <c r="R49">
-        <v>16889</v>
+        <v>24295</v>
       </c>
       <c r="S49" t="s">
         <v>7</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>4242</v>
+        <v>4278</v>
       </c>
       <c r="V49">
         <f>U67</f>
-        <v>4268.2</v>
+        <v>3413.2</v>
       </c>
       <c r="W49">
         <f>T67</f>
-        <v>818.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
         <v>3</v>
@@ -4699,25 +4699,25 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>16890</v>
+        <v>26026</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K50" t="s">
         <v>2</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
         <v>3</v>
@@ -4729,33 +4729,33 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <v>21105</v>
+        <v>30362</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>4215</v>
+        <v>4336</v>
       </c>
       <c r="V50">
         <f>U78</f>
-        <v>4257.6000000000004</v>
+        <v>3722.9</v>
       </c>
       <c r="W50">
         <f>T78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -4773,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="H51">
-        <v>22817</v>
+        <v>32101</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>27109</v>
+        <v>36430</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
@@ -4813,23 +4813,23 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>4292</v>
+        <v>4329</v>
       </c>
       <c r="V51">
         <f>U89</f>
-        <v>4276.8</v>
+        <v>4077.9</v>
       </c>
       <c r="W51">
         <f>T89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <v>28849</v>
+        <v>38165</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -4877,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="R52">
-        <v>33138</v>
+        <v>42491</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4887,23 +4887,23 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>4289</v>
+        <v>4326</v>
       </c>
       <c r="V52">
         <f>U100</f>
-        <v>4303.6000000000004</v>
+        <v>2538</v>
       </c>
       <c r="W52">
         <f>T100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>818.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -4921,7 +4921,7 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>34837</v>
+        <v>44234</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
@@ -4933,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
@@ -4951,7 +4951,7 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>39133</v>
+        <v>48567</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
@@ -4961,18 +4961,18 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>4296</v>
+        <v>4333</v>
       </c>
       <c r="V53">
         <f>U111</f>
-        <v>4350.8</v>
+        <v>4196.2</v>
       </c>
       <c r="W53">
         <f>T111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>40836</v>
+        <v>50320</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>45136</v>
+        <v>54614</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5035,15 +5035,15 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>46872</v>
+        <v>56342</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5073,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
@@ -5091,7 +5091,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>51195</v>
+        <v>60650</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5101,10 +5101,10 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5132,14 +5132,14 @@
       <c r="R56" s="2"/>
       <c r="T56">
         <f>AVERAGE(T46:T55)</f>
-        <v>1023.5</v>
+        <v>2047</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>4260.1000000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4326.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>17</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>3</v>
@@ -5162,13 +5162,13 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1740</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
@@ -5180,7 +5180,7 @@
         <v>17</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
         <v>3</v>
@@ -5192,31 +5192,31 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>4227</v>
+        <v>6079</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>4227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -5228,25 +5228,25 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>4228</v>
+        <v>7771</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K58" t="s">
         <v>2</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="s">
         <v>3</v>
@@ -5258,31 +5258,31 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>8474</v>
+        <v>12131</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -5294,25 +5294,25 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>8475</v>
+        <v>13881</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K59" t="s">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
         <v>3</v>
@@ -5324,25 +5324,25 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>12705</v>
+        <v>18308</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>12706</v>
+        <v>18309</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -5390,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>16944</v>
+        <v>19547</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
@@ -5400,21 +5400,21 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -5426,25 +5426,25 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>16945</v>
+        <v>21286</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K61" t="s">
         <v>2</v>
       </c>
       <c r="L61">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="s">
         <v>3</v>
@@ -5456,25 +5456,25 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>21183</v>
+        <v>25624</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>21184</v>
+        <v>25625</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5504,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -5522,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>25412</v>
+        <v>26838</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5532,15 +5532,15 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -5558,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>27124</v>
+        <v>28597</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
@@ -5570,7 +5570,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
@@ -5588,7 +5588,7 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>31447</v>
+        <v>32884</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
@@ -5598,21 +5598,21 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>3</v>
@@ -5624,25 +5624,25 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>33179</v>
+        <v>32885</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
       </c>
       <c r="J64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>2</v>
       </c>
       <c r="L64">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>3</v>
@@ -5654,25 +5654,25 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>37500</v>
+        <v>34127</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
       </c>
       <c r="T64">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -5690,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>39232</v>
+        <v>35888</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5702,7 +5702,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M65" t="s">
         <v>17</v>
@@ -5720,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>43566</v>
+        <v>40210</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5730,15 +5730,15 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>45320</v>
+        <v>41946</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -5786,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>49617</v>
+        <v>46312</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5796,10 +5796,10 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5827,14 +5827,14 @@
       <c r="R67" s="2"/>
       <c r="T67">
         <f>AVERAGE(T57:T66)</f>
-        <v>818.8</v>
+        <v>1432.9</v>
       </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>4268.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>3413.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -5857,13 +5857,13 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1759</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K68" t="s">
         <v>2</v>
@@ -5875,7 +5875,7 @@
         <v>17</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
         <v>3</v>
@@ -5887,25 +5887,25 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>4225</v>
+        <v>6091</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U110" si="1">R68-H68</f>
-        <v>4225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -5923,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>4226</v>
+        <v>6092</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
@@ -5935,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
@@ -5953,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>8438</v>
+        <v>7271</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
@@ -5963,21 +5963,21 @@
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>3</v>
@@ -5989,25 +5989,25 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>8439</v>
+        <v>9015</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K70" t="s">
         <v>2</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s">
         <v>3</v>
@@ -6019,31 +6019,31 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>12676</v>
+        <v>13379</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
         <v>3</v>
@@ -6055,25 +6055,25 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>12677</v>
+        <v>15136</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K71" t="s">
         <v>2</v>
       </c>
       <c r="L71">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="s">
         <v>3</v>
@@ -6085,25 +6085,25 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>16905</v>
+        <v>19532</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -6121,7 +6121,7 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>16906</v>
+        <v>19533</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
@@ -6133,7 +6133,7 @@
         <v>2</v>
       </c>
       <c r="L72">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
@@ -6151,7 +6151,7 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>21137</v>
+        <v>20767</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
@@ -6161,21 +6161,21 @@
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -6187,25 +6187,25 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>21138</v>
+        <v>22579</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="s">
         <v>3</v>
@@ -6217,31 +6217,31 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>25388</v>
+        <v>26911</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
         <v>3</v>
@@ -6253,25 +6253,25 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>25389</v>
+        <v>28681</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K74" t="s">
         <v>2</v>
       </c>
       <c r="L74">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="s">
         <v>3</v>
@@ -6283,25 +6283,25 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>29594</v>
+        <v>33026</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -6319,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>31322</v>
+        <v>34803</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
@@ -6331,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -6349,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>35675</v>
+        <v>39153</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
@@ -6359,15 +6359,15 @@
       </c>
       <c r="U75">
         <f t="shared" si="1"/>
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>37421</v>
+        <v>40968</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6397,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -6415,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>41764</v>
+        <v>45315</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="U76">
         <f t="shared" si="1"/>
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -6451,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>43483</v>
+        <v>47113</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
       <c r="L77">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>47775</v>
+        <v>51463</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
@@ -6491,10 +6491,10 @@
       </c>
       <c r="U77">
         <f t="shared" si="1"/>
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6520,12 +6520,16 @@
         <v>40</v>
       </c>
       <c r="R78" s="2"/>
+      <c r="T78">
+        <f>AVERAGE(T68:T77)</f>
+        <v>1637.6</v>
+      </c>
       <c r="U78" s="2">
         <f>AVERAGE(U68:U77)</f>
-        <v>4257.6000000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>3722.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>17</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>3</v>
@@ -6548,13 +6552,13 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K79" t="s">
         <v>2</v>
@@ -6566,7 +6570,7 @@
         <v>17</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>3</v>
@@ -6578,25 +6582,25 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>4264</v>
+        <v>6056</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
       </c>
       <c r="T79">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -6614,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>4265</v>
+        <v>6057</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
@@ -6626,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="L80">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
@@ -6644,7 +6648,7 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>8520</v>
+        <v>7282</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
@@ -6654,21 +6658,21 @@
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>3</v>
@@ -6680,25 +6684,25 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>8521</v>
+        <v>9089</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K81" t="s">
         <v>2</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="s">
         <v>3</v>
@@ -6710,31 +6714,31 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>12766</v>
+        <v>13502</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -6746,25 +6750,25 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>12767</v>
+        <v>15327</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K82" t="s">
         <v>2</v>
       </c>
       <c r="L82">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="s">
         <v>3</v>
@@ -6776,31 +6780,31 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>17053</v>
+        <v>19779</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
@@ -6812,25 +6816,25 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>17054</v>
+        <v>21629</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K83" t="s">
         <v>2</v>
       </c>
       <c r="L83">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="s">
         <v>3</v>
@@ -6842,31 +6846,31 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>21290</v>
+        <v>25972</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
       </c>
       <c r="T83">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -6878,25 +6882,25 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>21291</v>
+        <v>27813</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K84" t="s">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="s">
         <v>3</v>
@@ -6908,31 +6912,31 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>25542</v>
+        <v>32206</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -6944,25 +6948,25 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>25543</v>
+        <v>34042</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K85" t="s">
         <v>2</v>
       </c>
       <c r="L85">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="s">
         <v>3</v>
@@ -6974,31 +6978,31 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>29779</v>
+        <v>38508</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -7010,25 +7014,25 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>29780</v>
+        <v>40324</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K86" t="s">
         <v>2</v>
       </c>
       <c r="L86">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="s">
         <v>3</v>
@@ -7040,25 +7044,25 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>34044</v>
+        <v>44727</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -7076,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>35791</v>
+        <v>46591</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7088,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -7106,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>40122</v>
+        <v>50957</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7116,15 +7120,15 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -7142,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>41931</v>
+        <v>52804</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7154,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -7172,7 +7176,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>46331</v>
+        <v>57180</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7182,10 +7186,10 @@
       </c>
       <c r="U88">
         <f t="shared" si="1"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7211,12 +7215,16 @@
         <v>45</v>
       </c>
       <c r="R89" s="2"/>
+      <c r="T89">
+        <f>AVERAGE(T79:T88)</f>
+        <v>1842.3</v>
+      </c>
       <c r="U89" s="2">
         <f>AVERAGE(U79:U88)</f>
-        <v>4276.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4077.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -7227,7 +7235,7 @@
         <v>17</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
         <v>3</v>
@@ -7239,13 +7247,13 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K90" t="s">
         <v>2</v>
@@ -7257,7 +7265,7 @@
         <v>17</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="s">
         <v>3</v>
@@ -7269,25 +7277,25 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>4294</v>
+        <v>6198</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
@@ -7305,7 +7313,7 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>4295</v>
+        <v>6199</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
@@ -7317,7 +7325,7 @@
         <v>2</v>
       </c>
       <c r="L91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
@@ -7335,7 +7343,7 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>8592</v>
+        <v>7518</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
@@ -7345,15 +7353,15 @@
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -7371,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>8593</v>
+        <v>7519</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
@@ -7383,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
@@ -7401,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>12846</v>
+        <v>8842</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
@@ -7411,15 +7419,15 @@
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -7437,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>12847</v>
+        <v>8843</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
@@ -7449,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="L93">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
@@ -7467,7 +7475,7 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>17148</v>
+        <v>10102</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
@@ -7477,15 +7485,15 @@
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -7503,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>17149</v>
+        <v>10103</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -7515,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="L94">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -7533,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>21491</v>
+        <v>11428</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
@@ -7543,15 +7551,15 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -7569,7 +7577,7 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>21492</v>
+        <v>11429</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -7581,7 +7589,7 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -7599,7 +7607,7 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>25767</v>
+        <v>12712</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
@@ -7609,15 +7617,15 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
@@ -7635,7 +7643,7 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>25768</v>
+        <v>12713</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
@@ -7647,7 +7655,7 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
@@ -7665,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>30063</v>
+        <v>13998</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
@@ -7675,21 +7683,21 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
@@ -7701,25 +7709,25 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>30064</v>
+        <v>15902</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K97" t="s">
         <v>2</v>
       </c>
       <c r="L97">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="s">
         <v>3</v>
@@ -7731,31 +7739,31 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>34376</v>
+        <v>20285</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
       </c>
       <c r="T97">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
         <v>3</v>
@@ -7767,25 +7775,25 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>34377</v>
+        <v>22171</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K98" t="s">
         <v>2</v>
       </c>
       <c r="L98">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="s">
         <v>3</v>
@@ -7797,25 +7805,25 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>38659</v>
+        <v>26549</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
@@ -7833,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>40494</v>
+        <v>28443</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
@@ -7845,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="L99">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
@@ -7863,7 +7871,7 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>44879</v>
+        <v>32830</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
@@ -7873,10 +7881,10 @@
       </c>
       <c r="U99">
         <f t="shared" si="1"/>
-        <v>4385</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7902,12 +7910,16 @@
         <v>48</v>
       </c>
       <c r="R100" s="2"/>
+      <c r="T100">
+        <f>AVERAGE(T90:T99)</f>
+        <v>818.8</v>
+      </c>
       <c r="U100" s="2">
         <f>AVERAGE(U90:U99)</f>
-        <v>4303.6000000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7930,7 @@
         <v>17</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -7930,13 +7942,13 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1723</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K101" t="s">
         <v>2</v>
@@ -7948,7 +7960,7 @@
         <v>17</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="s">
         <v>3</v>
@@ -7960,20 +7972,20 @@
         <v>6</v>
       </c>
       <c r="R101">
-        <v>4409</v>
+        <v>6163</v>
       </c>
       <c r="S101" t="s">
         <v>7</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>4409</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -7984,7 +7996,7 @@
         <v>17</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
@@ -7996,13 +8008,13 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>4410</v>
+        <v>8065</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K102" t="s">
         <v>2</v>
@@ -8014,7 +8026,7 @@
         <v>17</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" t="s">
         <v>3</v>
@@ -8026,25 +8038,25 @@
         <v>6</v>
       </c>
       <c r="R102">
-        <v>8752</v>
+        <v>12637</v>
       </c>
       <c r="S102" t="s">
         <v>7</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -8062,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>8753</v>
+        <v>12638</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
@@ -8074,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -8092,7 +8104,7 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <v>13128</v>
+        <v>14021</v>
       </c>
       <c r="S103" t="s">
         <v>7</v>
@@ -8102,21 +8114,21 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="s">
         <v>3</v>
@@ -8128,25 +8140,25 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>13129</v>
+        <v>15983</v>
       </c>
       <c r="I104" t="s">
         <v>5</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K104" t="s">
         <v>2</v>
       </c>
       <c r="L104">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="s">
         <v>3</v>
@@ -8158,31 +8170,31 @@
         <v>6</v>
       </c>
       <c r="R104">
-        <v>17525</v>
+        <v>20457</v>
       </c>
       <c r="S104" t="s">
         <v>7</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>4396</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>3</v>
@@ -8194,25 +8206,25 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>17526</v>
+        <v>22430</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K105" t="s">
         <v>2</v>
       </c>
       <c r="L105">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="s">
         <v>3</v>
@@ -8224,31 +8236,31 @@
         <v>6</v>
       </c>
       <c r="R105">
-        <v>21824</v>
+        <v>26946</v>
       </c>
       <c r="S105" t="s">
         <v>7</v>
       </c>
       <c r="T105">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -8260,25 +8272,25 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>21825</v>
+        <v>28916</v>
       </c>
       <c r="I106" t="s">
         <v>5</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K106" t="s">
         <v>2</v>
       </c>
       <c r="L106">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="s">
         <v>3</v>
@@ -8290,31 +8302,31 @@
         <v>6</v>
       </c>
       <c r="R106">
-        <v>26207</v>
+        <v>33450</v>
       </c>
       <c r="S106" t="s">
         <v>7</v>
       </c>
       <c r="T106">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="s">
         <v>3</v>
@@ -8326,25 +8338,25 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>26208</v>
+        <v>35435</v>
       </c>
       <c r="I107" t="s">
         <v>5</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K107" t="s">
         <v>2</v>
       </c>
       <c r="L107">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O107" t="s">
         <v>3</v>
@@ -8356,31 +8368,31 @@
         <v>6</v>
       </c>
       <c r="R107">
-        <v>30540</v>
+        <v>40042</v>
       </c>
       <c r="S107" t="s">
         <v>7</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
@@ -8392,25 +8404,25 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>30541</v>
+        <v>42012</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K108" t="s">
         <v>2</v>
       </c>
       <c r="L108">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="s">
         <v>3</v>
@@ -8422,31 +8434,31 @@
         <v>6</v>
       </c>
       <c r="R108">
-        <v>34826</v>
+        <v>46555</v>
       </c>
       <c r="S108" t="s">
         <v>7</v>
       </c>
       <c r="T108">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
@@ -8458,25 +8470,25 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>34827</v>
+        <v>48529</v>
       </c>
       <c r="I109" t="s">
         <v>5</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K109" t="s">
         <v>2</v>
       </c>
       <c r="L109">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
         <v>3</v>
@@ -8488,31 +8500,31 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>39186</v>
+        <v>52883</v>
       </c>
       <c r="S109" t="s">
         <v>7</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
         <v>3</v>
@@ -8524,25 +8536,25 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>39187</v>
+        <v>54863</v>
       </c>
       <c r="I110" t="s">
         <v>5</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K110" t="s">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" t="s">
         <v>3</v>
@@ -8554,28 +8566,28 @@
         <v>6</v>
       </c>
       <c r="R110">
-        <v>43517</v>
+        <v>59402</v>
       </c>
       <c r="S110" t="s">
         <v>7</v>
       </c>
       <c r="T110">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U110">
         <f t="shared" si="1"/>
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
-        <v>0</v>
+        <v>1842.3</v>
       </c>
       <c r="U111" s="2">
         <f>AVERAGE(U101:U110)</f>
-        <v>4350.8</v>
+        <v>4196.2</v>
       </c>
     </row>
   </sheetData>
@@ -8588,20 +8600,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B6230B-E967-4A50-80F0-2097EBDAFE8F}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8624,322 +8636,322 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>4378.5</v>
+        <v>4325.3999999999996</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.21892500000000001</v>
+        <v>0.21626999999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>8415.2106885919839</v>
+        <v>9465.0205761316884</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.21892500000000001</v>
+        <v>0.21626999999999999</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>8415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>4378.7</v>
+        <v>4341.3</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.21893499999999999</v>
+        <v>0.21706500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>8414.8263183136551</v>
+        <v>9430.3549627991615</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.21893499999999999</v>
+        <v>0.21706500000000001</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>8414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>4394.2</v>
+        <v>4008.9</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.21970999999999999</v>
+        <v>0.20044500000000001</v>
       </c>
       <c r="D4" s="1">
         <v>1842.3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>8385.1440535251022</v>
+        <v>9191.0499139414787</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.21970999999999999</v>
+        <v>0.20044500000000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>8385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>4400.3</v>
+        <v>4337.3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.22001499999999999</v>
+        <v>0.216865</v>
       </c>
       <c r="D5" s="1">
-        <v>1842.3</v>
+        <v>2047</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>8373.5199872735957</v>
+        <v>9439.0519447582592</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.22001499999999999</v>
+        <v>0.216865</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>8373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>4493.3999999999996</v>
+        <v>4326.7</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.22466999999999998</v>
+        <v>0.216335</v>
       </c>
       <c r="D6" s="1">
-        <v>1637.6</v>
+        <v>2047</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>7288.9126274090895</v>
+        <v>9462.1767166662812</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.22467000000000001</v>
+        <v>0.216335</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>7288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>4505.7</v>
+        <v>3413.2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.22528500000000001</v>
+        <v>0.17066000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>1637.6</v>
+        <v>1432.9</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>7269.0148034711583</v>
+        <v>8396.2264150943392</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.22528500000000001</v>
+        <v>0.17066000000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>7269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>4598.3</v>
+        <v>3722.9</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.22991500000000001</v>
+        <v>0.186145</v>
       </c>
       <c r="D8" s="1">
-        <v>1432.9</v>
+        <v>1637.6</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>6232.303242502664</v>
+        <v>8797.4428536893283</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.22991500000000001</v>
+        <v>0.186145</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>6232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>4609</v>
+        <v>4077.9</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.23044999999999999</v>
+        <v>0.20389499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>1432.9</v>
+        <v>1842.3</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>6217.8346712952925</v>
+        <v>9035.5329949238585</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.23044999999999999</v>
+        <v>0.20389499999999999</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>6217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>4506.7</v>
+        <v>2538</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.22533500000000001</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>1842.3</v>
+        <v>818.8</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>8175.8271018705482</v>
+        <v>6452.3246650906212</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.22533500000000001</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>8175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>4761.3999999999996</v>
+        <v>4196.2</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.23806999999999998</v>
+        <v>0.20981</v>
       </c>
       <c r="D11" s="1">
-        <v>1432.9</v>
+        <v>1842.3</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>6018.8179947074395</v>
+        <v>8780.8016777084031</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.23807</v>
+        <v>0.20981</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>0.21688000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.22201999999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.2208</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0.21825500000000003</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>0.21959000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>0.22290500000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.221715</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>0.223135</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>0.22186999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.22478000000000004</v>
       </c>
@@ -8958,12 +8970,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8974,7 +8986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -8985,7 +8997,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -8996,7 +9008,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9007,7 +9019,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9018,7 +9030,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9029,7 +9041,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9040,7 +9052,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9051,7 +9063,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9062,7 +9074,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9073,7 +9085,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
